--- a/data/5648_Dummy_Borling.xlsx
+++ b/data/5648_Dummy_Borling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_20210802\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C97D0-B619-46C8-813C-7D1D9D3A1960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417BD0B4-D7E5-4CDE-B94D-D397C10F518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37650" yWindow="1995" windowWidth="18510" windowHeight="12960" xr2:uid="{0697A0C6-237A-44CF-BACB-3BC46BBCEB5C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0697A0C6-237A-44CF-BACB-3BC46BBCEB5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Boring Log 1</t>
   </si>
@@ -67,6 +67,22 @@
   </si>
   <si>
     <t>Logs</t>
+  </si>
+  <si>
+    <t>Low-K layer/len 1
+(m thickness)</t>
+  </si>
+  <si>
+    <t>Low-K layer/len 4
+(m thickness)</t>
+  </si>
+  <si>
+    <t>Low-K layer/len 3
+(m thickness)</t>
+  </si>
+  <si>
+    <t>Low-K layer/len 2
+(m thickness)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +105,12 @@
       <color theme="1"/>
       <name val="ArialMT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,7 +157,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +165,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -464,32 +489,33 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6">
+    <row r="1" spans="1:5" ht="45.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +526,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -513,7 +539,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -526,9 +552,11 @@
       <c r="D4" s="1">
         <v>0.95</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.6">
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -541,7 +569,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -552,7 +580,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -563,7 +591,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -576,7 +604,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -591,7 +619,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -604,7 +632,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -616,6 +644,7 @@
       <c r="E11" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>